--- a/biology/Médecine/Frances_Gertrude_McGill/Frances_Gertrude_McGill.xlsx
+++ b/biology/Médecine/Frances_Gertrude_McGill/Frances_Gertrude_McGill.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frances Gertrude McGill (né le 18 novembre 1882 à Minnedosa et morte le 21 janvier 1959 à Winnipeg) est une médecin légale, criminologue, bactériologiste et allergologue canadienne. Surnommée « la Sherlock Holmes de la Saskatchewan » pour ses compétences déductives et sa renommée publique, McGill a influencé le développement de la médecine légale pour la police canadienne et a été reconnue internationalement pour son expertise dans le domaine.
 Après avoir obtenu son diplôme de médecine à l'université du Manitoba en 1915, McGill a déménagé dans la Saskatchewan où elle a été embauchée d'abord comme bactériologiste provinciale, puis comme pathologiste provinciale. Elle a beaucoup travaillé avec la Gendarmerie royale du Canada (GRC) et les services de police locaux pendant plus de trente ans. Elle a ainsi joué un rôle déterminant dans l'établissement du premier laboratoire médico-légal de la GRC. Elle a dirigé le laboratoire de la GRC pendant trois ans et formé les nouvelles recrues de la GRC aux méthodes de détection médico-légale. Après avoir pris sa retraite en 1946, McGill a été nommée chirurgienne honoraire de la GRC par le ministre canadien de la Justice, devenant l'une des premières femmes officielles de la structure, et elle a continué à agir comme consultante auprès de la GRC jusqu'à sa mort en 1959.
